--- a/data/TDase_HMM-mut_data_v3_KB.xlsx
+++ b/data/TDase_HMM-mut_data_v3_KB.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kblake/Documents/GitHub/TDase_HMM-mut/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kblake/Documents/GitHub/2023_Blake_TDase-HMM-mut/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEA0F37-A359-5A46-B0EB-559C166B3CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6DB234-3733-F34A-B0ED-899F4AFCB749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26980" yWindow="500" windowWidth="24220" windowHeight="27140" firstSheet="1" activeTab="1" xr2:uid="{50E331F7-5E36-FD4C-BA61-D97064FE1181}"/>
+    <workbookView xWindow="26960" yWindow="500" windowWidth="24220" windowHeight="27140" firstSheet="1" activeTab="3" xr2:uid="{50E331F7-5E36-FD4C-BA61-D97064FE1181}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab01_HMM-scores" sheetId="9" r:id="rId1"/>
     <sheet name="Tab02_HMM-MIC" sheetId="3" r:id="rId2"/>
     <sheet name="Tab03_HMM-kinetics" sheetId="14" r:id="rId3"/>
-    <sheet name="SUMMARY-mut" sheetId="12" r:id="rId4"/>
-    <sheet name="Tab04_mut-MIC" sheetId="2" r:id="rId5"/>
-    <sheet name="Tab05_mut-kinetics" sheetId="13" r:id="rId6"/>
-    <sheet name="Tab06_mut-therm" sheetId="10" r:id="rId7"/>
-    <sheet name="Tab07a_dom-X7" sheetId="4" r:id="rId8"/>
-    <sheet name="Tab07b_dom-50" sheetId="5" r:id="rId9"/>
-    <sheet name="Tab07c_dom-all" sheetId="6" r:id="rId10"/>
+    <sheet name="Tab03_HMM-ATC" sheetId="15" r:id="rId4"/>
+    <sheet name="SUMMARY-mut" sheetId="12" r:id="rId5"/>
+    <sheet name="Tab04_mut-MIC" sheetId="2" r:id="rId6"/>
+    <sheet name="Tab05_mut-kinetics" sheetId="13" r:id="rId7"/>
+    <sheet name="Tab06_mut-therm" sheetId="10" r:id="rId8"/>
+    <sheet name="Tab07a_dom-X7" sheetId="4" r:id="rId9"/>
+    <sheet name="Tab07b_dom-50" sheetId="5" r:id="rId10"/>
+    <sheet name="Tab07c_dom-all" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="464">
   <si>
     <t>tetX7</t>
   </si>
@@ -1428,6 +1429,15 @@
   </si>
   <si>
     <t>SA003_OBNNALCC_01134</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>Tet56-2</t>
+  </si>
+  <si>
+    <t>Tet56-3</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1832,6 +1842,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1859,6 +1872,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5"/>
       </font>
     </dxf>
@@ -1870,11 +1888,6 @@
     <dxf>
       <font>
         <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -4826,6 +4839,3230 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7791065B-47C5-B44C-9100-0070A66B07BC}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:C389"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>192</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>192</v>
+      </c>
+      <c r="C158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>192</v>
+      </c>
+      <c r="C161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>192</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>192</v>
+      </c>
+      <c r="C280" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>192</v>
+      </c>
+      <c r="C289" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>192</v>
+      </c>
+      <c r="C290" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>192</v>
+      </c>
+      <c r="C300" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>192</v>
+      </c>
+      <c r="C301" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>192</v>
+      </c>
+      <c r="C302" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>192</v>
+      </c>
+      <c r="C310" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>192</v>
+      </c>
+      <c r="C317" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>193</v>
+      </c>
+      <c r="C327" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>193</v>
+      </c>
+      <c r="C331" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FF1B43-9611-7842-B98C-A5CDB5FB5DA1}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C359"/>
@@ -7814,7 +11051,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -10326,6 +13563,420 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB055B3-A9CA-964A-BD2E-3B3D87051BB2}">
+  <dimension ref="A2:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>193</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>251</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>248</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>180</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>193</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>251</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>248</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>193</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>251</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2</v>
+      </c>
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>248</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>180</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>193</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="25">
+        <v>4</v>
+      </c>
+      <c r="D15" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>251</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="25">
+        <v>4</v>
+      </c>
+      <c r="D16" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>248</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="25">
+        <v>4</v>
+      </c>
+      <c r="D17" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>180</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25">
+        <v>4</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>193</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="25">
+        <v>8</v>
+      </c>
+      <c r="D19" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>251</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="25">
+        <v>8</v>
+      </c>
+      <c r="D20" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>248</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="25">
+        <v>8</v>
+      </c>
+      <c r="D21" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>180</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="25">
+        <v>8</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>193</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" s="25">
+        <v>16</v>
+      </c>
+      <c r="D23" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>251</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="25">
+        <v>16</v>
+      </c>
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>248</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" s="25">
+        <v>16</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>180</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25">
+        <v>16</v>
+      </c>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>193</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="25">
+        <v>32</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>251</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28" s="25">
+        <v>32</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>248</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="C29" s="25">
+        <v>32</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>180</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25">
+        <v>32</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF65AF1-2EF9-AA45-9F90-673D12C3C302}">
   <dimension ref="A2:AC63"/>
   <sheetViews>
@@ -13976,11 +17627,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576 C1:E1048576 G1:L1048576 AD1:XFD1048576">
-    <cfRule type="cellIs" dxfId="8" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="47" operator="equal">
+      <formula>"ND"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="45" operator="equal">
       <formula>"NA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="47" operator="equal">
-      <formula>"ND"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
@@ -13989,17 +17640,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"surface"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"stab"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"core"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="pocket">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="pocket">
       <formula>NOT(ISERROR(SEARCH("pocket",E1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"surface"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:I2 G5:I34 A43:A62 C44:C63 G63:H78 G79:I1048576">
@@ -14023,7 +17674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB8444F-7799-5943-B2AF-36249816E345}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:N63"/>
@@ -17104,7 +20755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE6718-BDEB-2642-84D7-F8478FA740E0}">
   <dimension ref="A2:N23"/>
   <sheetViews>
@@ -18219,7 +21870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29AE544-0515-EF42-B9E6-51C0E8C169EA}">
   <dimension ref="A2:AL26"/>
   <sheetViews>
@@ -19279,7 +22930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF58101-6600-FB46-88B0-9C63A7A81553}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C379"/>
@@ -22421,3228 +26072,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7791065B-47C5-B44C-9100-0070A66B07BC}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C389"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>192</v>
-      </c>
-      <c r="C103" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>192</v>
-      </c>
-      <c r="C104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>192</v>
-      </c>
-      <c r="C106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>192</v>
-      </c>
-      <c r="C112" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>192</v>
-      </c>
-      <c r="C113" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>192</v>
-      </c>
-      <c r="C148" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>192</v>
-      </c>
-      <c r="C156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>192</v>
-      </c>
-      <c r="C158" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>192</v>
-      </c>
-      <c r="C161" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>192</v>
-      </c>
-      <c r="C164" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208">
-        <v>207</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219">
-        <v>218</v>
-      </c>
-      <c r="B219" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220">
-        <v>219</v>
-      </c>
-      <c r="B220" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
-        <v>13</v>
-      </c>
-      <c r="C224" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
-        <v>227</v>
-      </c>
-      <c r="B228" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>228</v>
-      </c>
-      <c r="B229" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
-        <v>251</v>
-      </c>
-      <c r="B252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
-        <v>252</v>
-      </c>
-      <c r="B253" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
-        <v>253</v>
-      </c>
-      <c r="B254" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>254</v>
-      </c>
-      <c r="B255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
-        <v>255</v>
-      </c>
-      <c r="B256" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258">
-        <v>257</v>
-      </c>
-      <c r="B258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259">
-        <v>258</v>
-      </c>
-      <c r="B259" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260">
-        <v>259</v>
-      </c>
-      <c r="B260" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262">
-        <v>261</v>
-      </c>
-      <c r="B262" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263">
-        <v>262</v>
-      </c>
-      <c r="B263" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264">
-        <v>263</v>
-      </c>
-      <c r="B264" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265">
-        <v>264</v>
-      </c>
-      <c r="B265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266">
-        <v>265</v>
-      </c>
-      <c r="B266" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>13</v>
-      </c>
-      <c r="C267" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268">
-        <v>267</v>
-      </c>
-      <c r="B268" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269">
-        <v>268</v>
-      </c>
-      <c r="B269" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270">
-        <v>269</v>
-      </c>
-      <c r="B270" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272">
-        <v>271</v>
-      </c>
-      <c r="B272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273">
-        <v>272</v>
-      </c>
-      <c r="B273" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274">
-        <v>273</v>
-      </c>
-      <c r="B274" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275">
-        <v>274</v>
-      </c>
-      <c r="B275" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276">
-        <v>275</v>
-      </c>
-      <c r="B276" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277">
-        <v>276</v>
-      </c>
-      <c r="B277" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278">
-        <v>277</v>
-      </c>
-      <c r="B278" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279">
-        <v>278</v>
-      </c>
-      <c r="B279" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280">
-        <v>279</v>
-      </c>
-      <c r="B280" t="s">
-        <v>192</v>
-      </c>
-      <c r="C280" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281">
-        <v>280</v>
-      </c>
-      <c r="B281" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282">
-        <v>281</v>
-      </c>
-      <c r="B282" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283">
-        <v>282</v>
-      </c>
-      <c r="B283" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284">
-        <v>283</v>
-      </c>
-      <c r="B284" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285">
-        <v>284</v>
-      </c>
-      <c r="B285" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286">
-        <v>285</v>
-      </c>
-      <c r="B286" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287">
-        <v>286</v>
-      </c>
-      <c r="B287" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288">
-        <v>287</v>
-      </c>
-      <c r="B288" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289">
-        <v>288</v>
-      </c>
-      <c r="B289" t="s">
-        <v>192</v>
-      </c>
-      <c r="C289" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
-      <c r="A290">
-        <v>289</v>
-      </c>
-      <c r="B290" t="s">
-        <v>192</v>
-      </c>
-      <c r="C290" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291">
-        <v>290</v>
-      </c>
-      <c r="B291" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292">
-        <v>291</v>
-      </c>
-      <c r="B292" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293">
-        <v>292</v>
-      </c>
-      <c r="B293" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294">
-        <v>293</v>
-      </c>
-      <c r="B294" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295">
-        <v>294</v>
-      </c>
-      <c r="B295" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296">
-        <v>295</v>
-      </c>
-      <c r="B296" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297">
-        <v>296</v>
-      </c>
-      <c r="B297" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298">
-        <v>297</v>
-      </c>
-      <c r="B298" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299">
-        <v>298</v>
-      </c>
-      <c r="B299" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3">
-      <c r="A300">
-        <v>299</v>
-      </c>
-      <c r="B300" t="s">
-        <v>192</v>
-      </c>
-      <c r="C300" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301">
-        <v>300</v>
-      </c>
-      <c r="B301" t="s">
-        <v>192</v>
-      </c>
-      <c r="C301" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302">
-        <v>301</v>
-      </c>
-      <c r="B302" t="s">
-        <v>192</v>
-      </c>
-      <c r="C302" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303">
-        <v>302</v>
-      </c>
-      <c r="B303" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="A304">
-        <v>303</v>
-      </c>
-      <c r="B304" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305">
-        <v>304</v>
-      </c>
-      <c r="B305" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306">
-        <v>305</v>
-      </c>
-      <c r="B306" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307">
-        <v>306</v>
-      </c>
-      <c r="B307" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308">
-        <v>307</v>
-      </c>
-      <c r="B308" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309">
-        <v>308</v>
-      </c>
-      <c r="B309" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310">
-        <v>309</v>
-      </c>
-      <c r="B310" t="s">
-        <v>192</v>
-      </c>
-      <c r="C310" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311">
-        <v>310</v>
-      </c>
-      <c r="B311" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312">
-        <v>311</v>
-      </c>
-      <c r="B312" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313">
-        <v>312</v>
-      </c>
-      <c r="B313" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314">
-        <v>313</v>
-      </c>
-      <c r="B314" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315">
-        <v>314</v>
-      </c>
-      <c r="B315" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316">
-        <v>315</v>
-      </c>
-      <c r="B316" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317">
-        <v>316</v>
-      </c>
-      <c r="B317" t="s">
-        <v>192</v>
-      </c>
-      <c r="C317" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318">
-        <v>317</v>
-      </c>
-      <c r="B318" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319">
-        <v>318</v>
-      </c>
-      <c r="B319" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320">
-        <v>319</v>
-      </c>
-      <c r="B320" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321">
-        <v>320</v>
-      </c>
-      <c r="B321" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322">
-        <v>321</v>
-      </c>
-      <c r="B322" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323">
-        <v>322</v>
-      </c>
-      <c r="B323" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324">
-        <v>323</v>
-      </c>
-      <c r="B324" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325">
-        <v>324</v>
-      </c>
-      <c r="B325" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326">
-        <v>325</v>
-      </c>
-      <c r="B326" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327">
-        <v>326</v>
-      </c>
-      <c r="B327" t="s">
-        <v>193</v>
-      </c>
-      <c r="C327" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328">
-        <v>327</v>
-      </c>
-      <c r="B328" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329">
-        <v>328</v>
-      </c>
-      <c r="B329" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330">
-        <v>329</v>
-      </c>
-      <c r="B330" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331">
-        <v>330</v>
-      </c>
-      <c r="B331" t="s">
-        <v>193</v>
-      </c>
-      <c r="C331" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332">
-        <v>331</v>
-      </c>
-      <c r="B332" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333">
-        <v>332</v>
-      </c>
-      <c r="B333" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334">
-        <v>333</v>
-      </c>
-      <c r="B334" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335">
-        <v>334</v>
-      </c>
-      <c r="B335" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336">
-        <v>335</v>
-      </c>
-      <c r="B336" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337">
-        <v>336</v>
-      </c>
-      <c r="B337" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338">
-        <v>337</v>
-      </c>
-      <c r="B338" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339">
-        <v>338</v>
-      </c>
-      <c r="B339" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2">
-      <c r="A340">
-        <v>339</v>
-      </c>
-      <c r="B340" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
-      <c r="A341">
-        <v>340</v>
-      </c>
-      <c r="B341" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
-      <c r="A342">
-        <v>341</v>
-      </c>
-      <c r="B342" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
-      <c r="A343">
-        <v>342</v>
-      </c>
-      <c r="B343" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
-      <c r="A344">
-        <v>343</v>
-      </c>
-      <c r="B344" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2">
-      <c r="A345">
-        <v>344</v>
-      </c>
-      <c r="B345" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
-      <c r="A346">
-        <v>345</v>
-      </c>
-      <c r="B346" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
-      <c r="A347">
-        <v>346</v>
-      </c>
-      <c r="B347" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
-      <c r="A348">
-        <v>347</v>
-      </c>
-      <c r="B348" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
-      <c r="A349">
-        <v>348</v>
-      </c>
-      <c r="B349" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
-      <c r="A350">
-        <v>349</v>
-      </c>
-      <c r="B350" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
-      <c r="A351">
-        <v>350</v>
-      </c>
-      <c r="B351" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2">
-      <c r="A352">
-        <v>351</v>
-      </c>
-      <c r="B352" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
-      <c r="A353">
-        <v>352</v>
-      </c>
-      <c r="B353" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
-      <c r="A354">
-        <v>353</v>
-      </c>
-      <c r="B354" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2">
-      <c r="A355">
-        <v>354</v>
-      </c>
-      <c r="B355" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
-      <c r="A356">
-        <v>355</v>
-      </c>
-      <c r="B356" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2">
-      <c r="A357">
-        <v>356</v>
-      </c>
-      <c r="B357" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2">
-      <c r="A358">
-        <v>357</v>
-      </c>
-      <c r="B358" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
-      <c r="A359">
-        <v>358</v>
-      </c>
-      <c r="B359" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
-      <c r="A360">
-        <v>359</v>
-      </c>
-      <c r="B360" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
-      <c r="A361">
-        <v>360</v>
-      </c>
-      <c r="B361" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
-      <c r="A362">
-        <v>361</v>
-      </c>
-      <c r="B362" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2">
-      <c r="A363">
-        <v>362</v>
-      </c>
-      <c r="B363" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2">
-      <c r="A364">
-        <v>363</v>
-      </c>
-      <c r="B364" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
-      <c r="A365">
-        <v>364</v>
-      </c>
-      <c r="B365" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2">
-      <c r="A366">
-        <v>365</v>
-      </c>
-      <c r="B366" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367">
-        <v>366</v>
-      </c>
-      <c r="B367" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
-      <c r="A368">
-        <v>367</v>
-      </c>
-      <c r="B368" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
-      <c r="A369">
-        <v>368</v>
-      </c>
-      <c r="B369" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
-      <c r="A370">
-        <v>369</v>
-      </c>
-      <c r="B370" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
-      <c r="A371">
-        <v>370</v>
-      </c>
-      <c r="B371" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
-      <c r="A372">
-        <v>371</v>
-      </c>
-      <c r="B372" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373">
-        <v>372</v>
-      </c>
-      <c r="B373" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
-      <c r="A374">
-        <v>373</v>
-      </c>
-      <c r="B374" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
-      <c r="A375">
-        <v>374</v>
-      </c>
-      <c r="B375" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
-      <c r="A376">
-        <v>375</v>
-      </c>
-      <c r="B376" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
-      <c r="A377">
-        <v>376</v>
-      </c>
-      <c r="B377" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
-      <c r="A378">
-        <v>377</v>
-      </c>
-      <c r="B378" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
-      <c r="A379">
-        <v>378</v>
-      </c>
-      <c r="B379" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
-      <c r="A380">
-        <v>379</v>
-      </c>
-      <c r="B380" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
-      <c r="A381">
-        <v>380</v>
-      </c>
-      <c r="B381" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
-      <c r="A382">
-        <v>381</v>
-      </c>
-      <c r="B382" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
-      <c r="A383">
-        <v>382</v>
-      </c>
-      <c r="B383" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
-      <c r="A384">
-        <v>383</v>
-      </c>
-      <c r="B384" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
-      <c r="A385">
-        <v>384</v>
-      </c>
-      <c r="B385" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2">
-      <c r="A386">
-        <v>385</v>
-      </c>
-      <c r="B386" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
-      <c r="A387">
-        <v>386</v>
-      </c>
-      <c r="B387" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
-      <c r="A388">
-        <v>387</v>
-      </c>
-      <c r="B388" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
-      <c r="A389">
-        <v>388</v>
-      </c>
-      <c r="B389" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>